--- a/notebooks/assets/test_random_selection/keraspm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/keraspm25_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.924</v>
+        <v>1.519</v>
       </c>
       <c r="C2" t="n">
-        <v>1.151</v>
+        <v>0.901</v>
       </c>
       <c r="D2" t="n">
-        <v>1.083</v>
+        <v>0.663</v>
       </c>
       <c r="E2" t="n">
-        <v>1.176</v>
+        <v>0.86</v>
       </c>
       <c r="F2" t="n">
-        <v>0.596</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.528</v>
+        <v>1.983</v>
       </c>
       <c r="C3" t="n">
-        <v>1.535</v>
+        <v>1.247</v>
       </c>
       <c r="D3" t="n">
-        <v>1.395</v>
+        <v>0.883</v>
       </c>
       <c r="E3" t="n">
-        <v>1.473</v>
+        <v>1.098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.785</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.458</v>
+        <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>2.383</v>
+        <v>1.566</v>
       </c>
       <c r="D4" t="n">
-        <v>1.978</v>
+        <v>0.79</v>
       </c>
       <c r="E4" t="n">
-        <v>2.252</v>
+        <v>1.326</v>
       </c>
       <c r="F4" t="n">
-        <v>0.625</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.848</v>
+        <v>0.904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.775</v>
+        <v>0.854</v>
       </c>
       <c r="D5" t="n">
-        <v>0.474</v>
+        <v>0.786</v>
       </c>
       <c r="E5" t="n">
-        <v>0.864</v>
+        <v>0.916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.899</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="6">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.568</v>
+        <v>10.565</v>
       </c>
       <c r="C7" t="n">
-        <v>9.301</v>
+        <v>9.298</v>
       </c>
       <c r="D7" t="n">
-        <v>1.938</v>
+        <v>1.939</v>
       </c>
       <c r="E7" t="n">
-        <v>4.389</v>
+        <v>4.386</v>
       </c>
       <c r="F7" t="n">
-        <v>4.758</v>
+        <v>4.761</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.725</v>
+        <v>111.72</v>
       </c>
       <c r="C8" t="n">
-        <v>86.542</v>
+        <v>86.539</v>
       </c>
       <c r="D8" t="n">
-        <v>3.765</v>
+        <v>3.766</v>
       </c>
       <c r="E8" t="n">
-        <v>19.284</v>
+        <v>19.282</v>
       </c>
       <c r="F8" t="n">
-        <v>22.67</v>
+        <v>22.673</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         <v>-1.627</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.136</v>
+        <v>-7.082</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.189</v>
+        <v>-0.181</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.669</v>
+        <v>-2.616</v>
       </c>
     </row>
   </sheetData>
